--- a/LM_SprintBacklog.xlsx
+++ b/LM_SprintBacklog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9EF99D-3876-4251-895C-6B4DD82B9DC5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535FB392-AA3F-40CD-810A-242CDC925137}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE683880-89A1-4F08-895C-7BD551CFBB6D}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{CE683880-89A1-4F08-895C-7BD551CFBB6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Liste des sprints" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="52">
   <si>
     <t>Product Backlog Item</t>
   </si>
@@ -182,6 +182,15 @@
   </si>
   <si>
     <t>Gérer des publicités</t>
+  </si>
+  <si>
+    <t>Responsable</t>
+  </si>
+  <si>
+    <t>Hans Morsch, Sébastien Berger</t>
+  </si>
+  <si>
+    <t>Tim Allemann, Hans Morsch</t>
   </si>
 </sst>
 </file>
@@ -305,21 +314,9 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -332,6 +329,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -646,179 +655,223 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44797287-9CFB-45F6-9118-2459C604D196}">
-  <dimension ref="C6:G21"/>
+  <dimension ref="C6:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="16" t="s">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="12" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="17" t="s">
+      <c r="H6" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="17" t="s">
+      <c r="D7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="17" t="s">
+      <c r="D8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="17" t="s">
+      <c r="D9" s="13"/>
+      <c r="E9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="17" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="17" t="s">
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="17" t="s">
+      <c r="D12" s="13"/>
+      <c r="E12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-    </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="17" t="s">
+      <c r="D13" s="13"/>
+      <c r="E13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-    </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="17" t="s">
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="17" t="s">
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" s="17" t="s">
+      <c r="D16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="17" t="s">
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="17" t="s">
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="17" t="s">
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="17" t="s">
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C21" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
+      <c r="D21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -857,22 +910,22 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="1"/>
@@ -910,198 +963,198 @@
       <c r="AM2" s="1"/>
     </row>
     <row r="3" spans="1:39" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:39" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:39" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="17"/>
+      <c r="B6" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="D7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="8"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8" t="s">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:39" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8" t="s">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8" t="s">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="7" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8" t="s">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1109,13 +1162,13 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="17"/>
+      <c r="B17" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1123,13 +1176,13 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7" t="s">
+      <c r="A18" s="17"/>
+      <c r="B18" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1137,7 +1190,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="7" t="s">
         <v>17</v>
       </c>
     </row>

--- a/LM_SprintBacklog.xlsx
+++ b/LM_SprintBacklog.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535FB392-AA3F-40CD-810A-242CDC925137}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE919656-E5F2-4B2B-9C75-8FC3636947ED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{CE683880-89A1-4F08-895C-7BD551CFBB6D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{CE683880-89A1-4F08-895C-7BD551CFBB6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Liste des sprints" sheetId="5" r:id="rId1"/>
     <sheet name="Sprint 0" sheetId="1" r:id="rId2"/>
+    <sheet name="Sprint 1" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sprint 0'!$A$2:$F$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Sprint 1'!$A$2:$F$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="59">
   <si>
     <t>Product Backlog Item</t>
   </si>
@@ -191,6 +193,27 @@
   </si>
   <si>
     <t>Tim Allemann, Hans Morsch</t>
+  </si>
+  <si>
+    <t>Exploiter les réponses du Quiz</t>
+  </si>
+  <si>
+    <t>Définir un profil en fonction des réponses</t>
+  </si>
+  <si>
+    <t>Enregistrer les préférences</t>
+  </si>
+  <si>
+    <t>Modifier préférences existantes</t>
+  </si>
+  <si>
+    <t>Intégrer les styles vestimentaires</t>
+  </si>
+  <si>
+    <t>Modifier la base de données selon les modifications prévues</t>
+  </si>
+  <si>
+    <t>Hans Morsch, Tim Allemann, Sébastien Berger</t>
   </si>
 </sst>
 </file>
@@ -306,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -332,6 +355,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -340,6 +366,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -657,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44797287-9CFB-45F6-9118-2459C604D196}">
   <dimension ref="C6:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,7 +995,7 @@
       <c r="AM2" s="1"/>
     </row>
     <row r="3" spans="1:39" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -979,7 +1011,7 @@
       </c>
     </row>
     <row r="4" spans="1:39" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
@@ -993,7 +1025,7 @@
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
@@ -1007,7 +1039,7 @@
       </c>
     </row>
     <row r="6" spans="1:39" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="6" t="s">
         <v>24</v>
       </c>
@@ -1021,7 +1053,7 @@
       </c>
     </row>
     <row r="7" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1035,7 +1067,7 @@
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="6" t="s">
         <v>23</v>
       </c>
@@ -1049,7 +1081,7 @@
       </c>
     </row>
     <row r="9" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="6" t="s">
         <v>25</v>
       </c>
@@ -1063,7 +1095,7 @@
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -1079,7 +1111,7 @@
       </c>
     </row>
     <row r="11" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
@@ -1093,7 +1125,7 @@
       </c>
     </row>
     <row r="12" spans="1:39" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -1109,7 +1141,7 @@
       </c>
     </row>
     <row r="13" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="6" t="s">
         <v>29</v>
       </c>
@@ -1123,7 +1155,7 @@
       </c>
     </row>
     <row r="14" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="6" t="s">
         <v>30</v>
       </c>
@@ -1137,7 +1169,7 @@
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="6" t="s">
         <v>31</v>
       </c>
@@ -1151,7 +1183,7 @@
       </c>
     </row>
     <row r="16" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="18" t="s">
         <v>35</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -1167,7 +1199,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="6" t="s">
         <v>33</v>
       </c>
@@ -1181,7 +1213,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="6" t="s">
         <v>34</v>
       </c>
@@ -1206,4 +1238,398 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C79F63E-31B1-479B-88FD-E48C70B87D17}">
+  <dimension ref="A1:AM33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="4">
+        <v>43928</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="4">
+        <v>43963</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+    </row>
+    <row r="3" spans="1:39" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="B8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
+      <c r="B9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:39" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <autoFilter ref="A2:F22" xr:uid="{2D6EC268-FFCD-41DA-8732-66B916B3EBA2}"/>
+  <mergeCells count="3">
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/LM_SprintBacklog.xlsx
+++ b/LM_SprintBacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE919656-E5F2-4B2B-9C75-8FC3636947ED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA6EB06-1F0B-4812-8750-F2949474953B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{CE683880-89A1-4F08-895C-7BD551CFBB6D}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sprint 0'!$A$2:$F$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Sprint 1'!$A$2:$F$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Sprint 1'!$A$2:$F$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="85">
   <si>
     <t>Product Backlog Item</t>
   </si>
@@ -189,9 +189,6 @@
     <t>Responsable</t>
   </si>
   <si>
-    <t>Hans Morsch, Sébastien Berger</t>
-  </si>
-  <si>
     <t>Tim Allemann, Hans Morsch</t>
   </si>
   <si>
@@ -204,16 +201,97 @@
     <t>Enregistrer les préférences</t>
   </si>
   <si>
-    <t>Modifier préférences existantes</t>
-  </si>
-  <si>
-    <t>Intégrer les styles vestimentaires</t>
-  </si>
-  <si>
     <t>Modifier la base de données selon les modifications prévues</t>
   </si>
   <si>
     <t>Hans Morsch, Tim Allemann, Sébastien Berger</t>
+  </si>
+  <si>
+    <t>Ajouter les styles vestimentaires</t>
+  </si>
+  <si>
+    <t>Implémenter l'incrément</t>
+  </si>
+  <si>
+    <t>Ajouter la table de jointure religion</t>
+  </si>
+  <si>
+    <t>Faire correspondre les style dans l'algorithme</t>
+  </si>
+  <si>
+    <t>Inclure religion dans la recherche</t>
+  </si>
+  <si>
+    <t>Afficher un profil complet dans la recherche</t>
+  </si>
+  <si>
+    <t>Faire "matcher" les comptes qui se donnent des likes mutuellement</t>
+  </si>
+  <si>
+    <t>Modifier les préférences si déjà existantes</t>
+  </si>
+  <si>
+    <t>Liker un profil</t>
+  </si>
+  <si>
+    <t>Dislike un profil</t>
+  </si>
+  <si>
+    <t>Traçabilité de la connexion</t>
+  </si>
+  <si>
+    <t>Réinitialiser les mots de passe</t>
+  </si>
+  <si>
+    <t>Récupérer les données du compte</t>
+  </si>
+  <si>
+    <t>Intégrer les moyens de paiement</t>
+  </si>
+  <si>
+    <t>Gérer les paiements effectués par un compte</t>
+  </si>
+  <si>
+    <t>CRUD sur les rôles</t>
+  </si>
+  <si>
+    <t>CRUD compte utilisateur</t>
+  </si>
+  <si>
+    <t>Demander une photo spécifiques à l'înscription</t>
+  </si>
+  <si>
+    <t>Connexion avec un compte externe</t>
+  </si>
+  <si>
+    <t>Ajouter les styles vestimentaires et autres attributs à l'inscription</t>
+  </si>
+  <si>
+    <t>Vérifier les numéros de téléphone et les formater correctement</t>
+  </si>
+  <si>
+    <t>Pouvoir s'abonner</t>
+  </si>
+  <si>
+    <t>Afficher les matchs</t>
+  </si>
+  <si>
+    <t>Bloquer ou signaler un compte</t>
+  </si>
+  <si>
+    <t>Gérer les connexions avec le service Spotify</t>
+  </si>
+  <si>
+    <t>Intégrer les services externes à l'algorithme de match</t>
+  </si>
+  <si>
+    <t>Bannir les utilisateur</t>
+  </si>
+  <si>
+    <t>Proposer un abojnnement à l'affichage des matchs</t>
+  </si>
+  <si>
+    <t>Tim Allemann, Sébastien Berger</t>
   </si>
 </sst>
 </file>
@@ -329,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -352,7 +430,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -366,12 +444,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -687,19 +759,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44797287-9CFB-45F6-9118-2459C604D196}">
-  <dimension ref="C6:H21"/>
+  <dimension ref="C6:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C6" s="12" t="s">
         <v>36</v>
       </c>
@@ -718,8 +790,11 @@
       <c r="H6" s="12" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C7" s="13" t="s">
         <v>2</v>
       </c>
@@ -734,8 +809,9 @@
       <c r="H7" s="13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C8" s="13" t="s">
         <v>41</v>
       </c>
@@ -745,9 +821,14 @@
       <c r="E8" s="10"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H8" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C9" s="13" t="s">
         <v>13</v>
       </c>
@@ -758,10 +839,11 @@
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C10" s="13" t="s">
         <v>18</v>
       </c>
@@ -774,8 +856,9 @@
       <c r="H10" s="13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C11" s="13" t="s">
         <v>19</v>
       </c>
@@ -784,8 +867,9 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C12" s="13" t="s">
         <v>22</v>
       </c>
@@ -796,10 +880,11 @@
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C13" s="13" t="s">
         <v>42</v>
       </c>
@@ -810,10 +895,11 @@
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C14" s="13" t="s">
         <v>43</v>
       </c>
@@ -822,8 +908,9 @@
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C15" s="13" t="s">
         <v>44</v>
       </c>
@@ -832,8 +919,9 @@
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C16" s="13" t="s">
         <v>35</v>
       </c>
@@ -848,8 +936,9 @@
       <c r="H16" s="13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C17" s="13" t="s">
         <v>45</v>
       </c>
@@ -858,8 +947,9 @@
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="13"/>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C18" s="13" t="s">
         <v>46</v>
       </c>
@@ -868,8 +958,9 @@
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="13"/>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C19" s="13" t="s">
         <v>47</v>
       </c>
@@ -878,8 +969,9 @@
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="13"/>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C20" s="13" t="s">
         <v>48</v>
       </c>
@@ -888,8 +980,9 @@
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="13"/>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C21" s="13" t="s">
         <v>27</v>
       </c>
@@ -900,6 +993,7 @@
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -911,7 +1005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B75B0E-ECDE-42A2-B9F3-4E3333CB3A5F}">
   <dimension ref="A1:AM28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -1242,10 +1336,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C79F63E-31B1-479B-88FD-E48C70B87D17}">
-  <dimension ref="A1:AM33"/>
+  <dimension ref="A1:AM34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1327,12 +1421,12 @@
       <c r="AL2" s="1"/>
       <c r="AM2" s="1"/>
     </row>
-    <row r="3" spans="1:39" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:39" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -1343,10 +1437,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
+    <row r="4" spans="1:39" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
       <c r="B4" s="6" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -1357,24 +1451,26 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
+    <row r="5" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
       <c r="B5" s="6" t="s">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="E5" s="7"/>
-      <c r="F5" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>13</v>
+      </c>
       <c r="B6" s="6" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
@@ -1385,27 +1481,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
+    <row r="7" spans="1:39" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
       <c r="B7" s="6" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>17</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
+      <c r="F7" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
       <c r="B8" s="6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -1413,29 +1509,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
+    <row r="9" spans="1:39" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
       <c r="B9" s="6" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="7"/>
-      <c r="E9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>13</v>
-      </c>
+      <c r="A10" s="16"/>
       <c r="B10" s="6" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -1443,13 +1537,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+    <row r="11" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
       <c r="B11" s="6" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -1457,58 +1551,82 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
       <c r="B12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:39" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+      <c r="F12" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
       <c r="B13" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="7"/>
+        <v>79</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+    <row r="14" spans="1:39" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
       <c r="B14" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="2"/>
+      <c r="F14" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="2"/>
+      <c r="F15" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>18</v>
-      </c>
+      <c r="F16" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
       <c r="B17" s="6" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>12</v>
@@ -1519,27 +1637,31 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="B18" s="6" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="B19" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>12</v>
+        <v>54</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -1547,87 +1669,226 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
       <c r="B20" s="6" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="E20" s="7"/>
-      <c r="F20" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
-        <v>22</v>
-      </c>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="16"/>
       <c r="B21" s="6" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="D21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="6" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
       <c r="F22" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="6" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="20" t="s">
+      <c r="D23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
+      <c r="B25" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="16"/>
+      <c r="B26" s="6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
+      <c r="B27" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
+      <c r="B28" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="16"/>
+      <c r="B29" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
+      <c r="B31" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
+      <c r="B32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="16"/>
+      <c r="B33" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="17"/>
+      <c r="B34" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:F22" xr:uid="{2D6EC268-FFCD-41DA-8732-66B916B3EBA2}"/>
-  <mergeCells count="3">
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A21:A23"/>
+  <autoFilter ref="A2:F18" xr:uid="{2D6EC268-FFCD-41DA-8732-66B916B3EBA2}"/>
+  <mergeCells count="5">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/LM_SprintBacklog.xlsx
+++ b/LM_SprintBacklog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA6EB06-1F0B-4812-8750-F2949474953B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6655B2F-F7C2-4229-9DDA-134B6F03180D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{CE683880-89A1-4F08-895C-7BD551CFBB6D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE683880-89A1-4F08-895C-7BD551CFBB6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Liste des sprints" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="94">
   <si>
     <t>Product Backlog Item</t>
   </si>
@@ -186,12 +186,6 @@
     <t>Gérer des publicités</t>
   </si>
   <si>
-    <t>Responsable</t>
-  </si>
-  <si>
-    <t>Tim Allemann, Hans Morsch</t>
-  </si>
-  <si>
     <t>Exploiter les réponses du Quiz</t>
   </si>
   <si>
@@ -291,14 +285,47 @@
     <t>Proposer un abojnnement à l'affichage des matchs</t>
   </si>
   <si>
-    <t>Tim Allemann, Sébastien Berger</t>
+    <t>Gérer mes paiements</t>
+  </si>
+  <si>
+    <t>Gérer les services externes</t>
+  </si>
+  <si>
+    <t>Bloquer et signaler des personnes</t>
+  </si>
+  <si>
+    <t>Effectuer une demande d'adhésion</t>
+  </si>
+  <si>
+    <t>Modifier la formule d'abonnement</t>
+  </si>
+  <si>
+    <t>Vérifier les sms</t>
+  </si>
+  <si>
+    <t>Vérifier les photos</t>
+  </si>
+  <si>
+    <t>Valider le compte</t>
+  </si>
+  <si>
+    <t>Attribuer un rôle</t>
+  </si>
+  <si>
+    <t>Vérifier l'email</t>
+  </si>
+  <si>
+    <t>Relancer les vérifications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etre </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,8 +349,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,6 +379,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -444,6 +508,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -759,19 +842,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44797287-9CFB-45F6-9118-2459C604D196}">
-  <dimension ref="C6:I21"/>
+  <dimension ref="C6:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" s="12" t="s">
         <v>36</v>
       </c>
@@ -788,212 +870,332 @@
         <v>40</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="13" t="s">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="13"/>
-    </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="13" t="s">
+      <c r="D7" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+    </row>
+    <row r="10" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="13"/>
-    </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="D10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="10"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-      <c r="H10" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="13"/>
-    </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="13" t="s">
+      <c r="H10" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="13" t="s">
         <v>19</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-    </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="I12" s="13"/>
-    </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="13"/>
-    </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-    </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-    </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" s="13"/>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="13" t="s">
-        <v>47</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="13" t="s">
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C21" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C22" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="24"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="24"/>
+      <c r="E23" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C24" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C25" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="24"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C26" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C28" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C29" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C30" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C31" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C32" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C21" s="13" t="s">
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C35" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
+      <c r="D35" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1338,7 +1540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C79F63E-31B1-479B-88FD-E48C70B87D17}">
   <dimension ref="A1:AM34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1426,7 +1628,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -1440,7 +1642,7 @@
     <row r="4" spans="1:39" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
       <c r="B4" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -1454,7 +1656,7 @@
     <row r="5" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
@@ -1470,7 +1672,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
@@ -1484,7 +1686,7 @@
     <row r="7" spans="1:39" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
@@ -1498,7 +1700,7 @@
     <row r="8" spans="1:39" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
@@ -1512,7 +1714,7 @@
     <row r="9" spans="1:39" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>6</v>
@@ -1526,7 +1728,7 @@
     <row r="10" spans="1:39" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
@@ -1540,7 +1742,7 @@
     <row r="11" spans="1:39" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>12</v>
@@ -1554,7 +1756,7 @@
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>6</v>
@@ -1568,7 +1770,7 @@
     <row r="13" spans="1:39" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>26</v>
@@ -1582,7 +1784,7 @@
     <row r="14" spans="1:39" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>6</v>
@@ -1598,7 +1800,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
@@ -1612,7 +1814,7 @@
     <row r="16" spans="1:39" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>12</v>
@@ -1626,7 +1828,7 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>12</v>
@@ -1642,7 +1844,7 @@
         <v>22</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>12</v>
@@ -1658,10 +1860,10 @@
         <v>42</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -1672,7 +1874,7 @@
     <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
       <c r="B20" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>26</v>
@@ -1686,7 +1888,7 @@
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>26</v>
@@ -1700,7 +1902,7 @@
     <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
       <c r="B22" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>12</v>
@@ -1714,7 +1916,7 @@
     <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>26</v>
@@ -1730,7 +1932,7 @@
         <v>35</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>6</v>
@@ -1744,7 +1946,7 @@
     <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
       <c r="B25" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>6</v>
@@ -1758,7 +1960,7 @@
     <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
       <c r="B26" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>6</v>
@@ -1772,7 +1974,7 @@
     <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
       <c r="B27" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>6</v>
@@ -1786,7 +1988,7 @@
     <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
       <c r="B28" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>6</v>
@@ -1800,7 +2002,7 @@
     <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>6</v>
@@ -1814,7 +2016,7 @@
     <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
       <c r="B30" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>6</v>
@@ -1828,7 +2030,7 @@
     <row r="31" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
       <c r="B31" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>6</v>
@@ -1842,7 +2044,7 @@
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
       <c r="B32" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>6</v>
@@ -1856,7 +2058,7 @@
     <row r="33" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
       <c r="B33" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>6</v>
@@ -1870,7 +2072,7 @@
     <row r="34" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
       <c r="B34" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>6</v>

--- a/LM_SprintBacklog.xlsx
+++ b/LM_SprintBacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6655B2F-F7C2-4229-9DDA-134B6F03180D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAC491F-8258-428B-8EE8-9448D8EF1F05}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE683880-89A1-4F08-895C-7BD551CFBB6D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="108">
   <si>
     <t>Product Backlog Item</t>
   </si>
@@ -318,14 +318,56 @@
     <t>Relancer les vérifications</t>
   </si>
   <si>
-    <t xml:space="preserve">Etre </t>
+    <t>M'authentifier avec un compte externe</t>
+  </si>
+  <si>
+    <t>M'authentifier avec un compte interne</t>
+  </si>
+  <si>
+    <t>Effectuer les vérifications (modérateur)</t>
+  </si>
+  <si>
+    <t>Gérer les rôles</t>
+  </si>
+  <si>
+    <t>Tracer les connexions</t>
+  </si>
+  <si>
+    <t>Réinitialiser des mots de passes</t>
+  </si>
+  <si>
+    <t>Gérer des comptes</t>
+  </si>
+  <si>
+    <t>Bannir et avertir des comptes</t>
+  </si>
+  <si>
+    <t>Chercher des profil</t>
+  </si>
+  <si>
+    <t>Intégrer les préférences</t>
+  </si>
+  <si>
+    <t>Intégrer les services externe</t>
+  </si>
+  <si>
+    <t>Proposer abonnement</t>
+  </si>
+  <si>
+    <t>Chercher automatiquement 1 seul profil</t>
+  </si>
+  <si>
+    <t>Afficher des publicité</t>
+  </si>
+  <si>
+    <t>Automatiser la recherche</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,8 +404,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -403,6 +452,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC9900"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,7 +550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -486,26 +565,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -528,12 +592,71 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC9900"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -842,360 +965,614 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44797287-9CFB-45F6-9118-2459C604D196}">
-  <dimension ref="C6:H35"/>
+  <dimension ref="C6:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54:H54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="26" t="s">
+    <row r="7" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="26" t="s">
+      <c r="D7" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+    </row>
+    <row r="8" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="26" t="s">
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+    </row>
+    <row r="9" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-    </row>
-    <row r="10" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="13" t="s">
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+    </row>
+    <row r="10" spans="3:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="42"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+    </row>
+    <row r="11" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="19" t="s">
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="29"/>
+    </row>
+    <row r="12" spans="3:8" ht="16.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="29"/>
+    </row>
+    <row r="13" spans="3:8" ht="16.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="29"/>
+    </row>
+    <row r="14" spans="3:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="38"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="40"/>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="19" t="s">
+      <c r="D15" s="45"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+    </row>
+    <row r="16" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="19" t="s">
+      <c r="D16" s="14"/>
+      <c r="E16" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+    </row>
+    <row r="17" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="19" t="s">
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="19" t="s">
+      <c r="D18" s="14"/>
+      <c r="E18" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="21" t="s">
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+    </row>
+    <row r="20" spans="3:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C21" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="21" t="s">
+      <c r="D21" s="46"/>
+      <c r="E21" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="21" t="s">
+      <c r="D22" s="16"/>
+      <c r="E22" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="13" t="s">
+      <c r="D23" s="16"/>
+      <c r="E23" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="35"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C25" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="24" t="s">
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" spans="3:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C27" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C21" s="24" t="s">
+      <c r="D27" s="47"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+    </row>
+    <row r="28" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C22" s="24" t="s">
+      <c r="D28" s="19"/>
+      <c r="E28" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+    </row>
+    <row r="29" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C23" s="24" t="s">
+      <c r="D29" s="19"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+    </row>
+    <row r="30" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C24" s="24" t="s">
+      <c r="D30" s="19"/>
+      <c r="E30" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+    </row>
+    <row r="31" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C25" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C26" s="13" t="s">
+      <c r="D31" s="19"/>
+      <c r="E31" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+    </row>
+    <row r="32" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="19"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+    </row>
+    <row r="33" spans="3:8" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C28" s="13" t="s">
+      <c r="D34" s="48"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+    </row>
+    <row r="35" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="30"/>
+      <c r="E35" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+    </row>
+    <row r="36" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="30"/>
+      <c r="E36" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+    </row>
+    <row r="37" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="30"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+    </row>
+    <row r="38" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38" s="30"/>
+      <c r="E38" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+    </row>
+    <row r="39" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="30"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+    </row>
+    <row r="40" spans="3:8" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C41" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C29" s="13" t="s">
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+    </row>
+    <row r="42" spans="3:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C43" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-    </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C30" s="13" t="s">
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+    </row>
+    <row r="44" spans="3:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C45" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C31" s="13" t="s">
+      <c r="D45" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="33"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="49"/>
+    </row>
+    <row r="46" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+    </row>
+    <row r="47" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+    </row>
+    <row r="48" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+    </row>
+    <row r="49" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+    </row>
+    <row r="50" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+    </row>
+    <row r="51" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+    </row>
+    <row r="52" spans="3:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="34"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C53" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-    </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C32" s="13" t="s">
+      <c r="D53" s="50"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
+    </row>
+    <row r="54" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54" s="44"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="44"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="44"/>
+    </row>
+    <row r="55" spans="3:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C56" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C33" s="13" t="s">
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+    </row>
+    <row r="57" spans="3:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="34"/>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C58" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-    </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C34" s="13" t="s">
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+    </row>
+    <row r="59" spans="3:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C60" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-    </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C35" s="13" t="s">
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+    </row>
+    <row r="61" spans="3:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="34"/>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C62" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
+      <c r="D62" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1207,7 +1584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B75B0E-ECDE-42A2-B9F3-4E3333CB3A5F}">
   <dimension ref="A1:AM28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -1291,7 +1668,7 @@
       <c r="AM2" s="1"/>
     </row>
     <row r="3" spans="1:39" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1307,7 +1684,7 @@
       </c>
     </row>
     <row r="4" spans="1:39" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
@@ -1321,7 +1698,7 @@
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
@@ -1335,7 +1712,7 @@
       </c>
     </row>
     <row r="6" spans="1:39" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="6" t="s">
         <v>24</v>
       </c>
@@ -1349,7 +1726,7 @@
       </c>
     </row>
     <row r="7" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1363,7 +1740,7 @@
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="6" t="s">
         <v>23</v>
       </c>
@@ -1377,7 +1754,7 @@
       </c>
     </row>
     <row r="9" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="6" t="s">
         <v>25</v>
       </c>
@@ -1391,7 +1768,7 @@
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="26" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -1407,7 +1784,7 @@
       </c>
     </row>
     <row r="11" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
@@ -1421,7 +1798,7 @@
       </c>
     </row>
     <row r="12" spans="1:39" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="23" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -1437,7 +1814,7 @@
       </c>
     </row>
     <row r="13" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="6" t="s">
         <v>29</v>
       </c>
@@ -1451,7 +1828,7 @@
       </c>
     </row>
     <row r="14" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="6" t="s">
         <v>30</v>
       </c>
@@ -1465,7 +1842,7 @@
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="6" t="s">
         <v>31</v>
       </c>
@@ -1479,7 +1856,7 @@
       </c>
     </row>
     <row r="16" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="26" t="s">
         <v>35</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -1495,7 +1872,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="6" t="s">
         <v>33</v>
       </c>
@@ -1509,7 +1886,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="6" t="s">
         <v>34</v>
       </c>
@@ -1540,8 +1917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C79F63E-31B1-479B-88FD-E48C70B87D17}">
   <dimension ref="A1:AM34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1624,7 +2001,7 @@
       <c r="AM2" s="1"/>
     </row>
     <row r="3" spans="1:39" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="23" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1640,7 +2017,7 @@
       </c>
     </row>
     <row r="4" spans="1:39" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="6" t="s">
         <v>74</v>
       </c>
@@ -1654,7 +2031,7 @@
       </c>
     </row>
     <row r="5" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="6" t="s">
         <v>72</v>
       </c>
@@ -1668,7 +2045,7 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -1684,7 +2061,7 @@
       </c>
     </row>
     <row r="7" spans="1:39" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="6" t="s">
         <v>50</v>
       </c>
@@ -1698,7 +2075,7 @@
       </c>
     </row>
     <row r="8" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="6" t="s">
         <v>51</v>
       </c>
@@ -1712,7 +2089,7 @@
       </c>
     </row>
     <row r="9" spans="1:39" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="6" t="s">
         <v>61</v>
       </c>
@@ -1726,7 +2103,7 @@
       </c>
     </row>
     <row r="10" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="6" t="s">
         <v>64</v>
       </c>
@@ -1740,7 +2117,7 @@
       </c>
     </row>
     <row r="11" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="6" t="s">
         <v>66</v>
       </c>
@@ -1754,7 +2131,7 @@
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="6" t="s">
         <v>76</v>
       </c>
@@ -1768,7 +2145,7 @@
       </c>
     </row>
     <row r="13" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="6" t="s">
         <v>77</v>
       </c>
@@ -1782,7 +2159,7 @@
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:39" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="6" t="s">
         <v>78</v>
       </c>
@@ -1796,7 +2173,7 @@
       </c>
     </row>
     <row r="15" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="23" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -1812,7 +2189,7 @@
       </c>
     </row>
     <row r="16" spans="1:39" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="6" t="s">
         <v>68</v>
       </c>
@@ -1826,7 +2203,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="6" t="s">
         <v>75</v>
       </c>
@@ -1840,7 +2217,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -1856,7 +2233,7 @@
       <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="23" t="s">
         <v>42</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -1872,7 +2249,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="6" t="s">
         <v>65</v>
       </c>
@@ -1886,7 +2263,7 @@
       <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="6" t="s">
         <v>69</v>
       </c>
@@ -1900,7 +2277,7 @@
       <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="6" t="s">
         <v>70</v>
       </c>
@@ -1914,7 +2291,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="6" t="s">
         <v>80</v>
       </c>
@@ -1928,7 +2305,7 @@
       <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="23" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -1944,7 +2321,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="6" t="s">
         <v>55</v>
       </c>
@@ -1958,7 +2335,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="6" t="s">
         <v>56</v>
       </c>
@@ -1972,7 +2349,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="6" t="s">
         <v>57</v>
       </c>
@@ -1986,7 +2363,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
+      <c r="A28" s="24"/>
       <c r="B28" s="6" t="s">
         <v>58</v>
       </c>
@@ -2000,7 +2377,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="6" t="s">
         <v>59</v>
       </c>
@@ -2014,7 +2391,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="6" t="s">
         <v>60</v>
       </c>
@@ -2028,7 +2405,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="6" t="s">
         <v>62</v>
       </c>
@@ -2042,7 +2419,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="6" t="s">
         <v>63</v>
       </c>
@@ -2056,7 +2433,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="6" t="s">
         <v>79</v>
       </c>
@@ -2070,7 +2447,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
+      <c r="A34" s="25"/>
       <c r="B34" s="6" t="s">
         <v>81</v>
       </c>

--- a/LM_SprintBacklog.xlsx
+++ b/LM_SprintBacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAC491F-8258-428B-8EE8-9448D8EF1F05}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37933B32-55AC-4B3E-8DD1-802224F52FE6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE683880-89A1-4F08-895C-7BD551CFBB6D}"/>
   </bookViews>
@@ -592,18 +592,6 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -646,6 +634,18 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -967,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44797287-9CFB-45F6-9118-2459C604D196}">
   <dimension ref="C6:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54:H54"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -997,7 +997,7 @@
       </c>
     </row>
     <row r="7" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="37" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="22" t="s">
@@ -1006,9 +1006,9 @@
       <c r="E7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
     </row>
     <row r="8" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C8" s="21" t="s">
@@ -1031,64 +1031,64 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="3:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="42"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
     </row>
     <row r="11" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="29"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="25"/>
     </row>
     <row r="12" spans="3:8" ht="16.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="29"/>
+      <c r="D12" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="25"/>
     </row>
     <row r="13" spans="3:8" ht="16.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="29"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="25"/>
     </row>
     <row r="14" spans="3:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="38"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="40"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="36"/>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="45"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="15"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
     </row>
     <row r="16" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C16" s="14" t="s">
@@ -1135,23 +1135,23 @@
       <c r="H19" s="14"/>
     </row>
     <row r="20" spans="3:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="46"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
       <c r="H21" s="18" t="s">
         <v>17</v>
       </c>
@@ -1185,12 +1185,12 @@
       </c>
     </row>
     <row r="24" spans="3:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="35"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="31"/>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C25" s="12" t="s">
@@ -1203,22 +1203,22 @@
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="3:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C27" s="47" t="s">
+      <c r="C27" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="47"/>
+      <c r="D27" s="43"/>
       <c r="E27" s="20"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
     </row>
     <row r="28" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C28" s="19" t="s">
@@ -1277,86 +1277,86 @@
       <c r="H32" s="19"/>
     </row>
     <row r="33" spans="3:8" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C34" s="48" t="s">
+      <c r="C34" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="48"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
     </row>
     <row r="35" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
     </row>
     <row r="36" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="30" t="s">
+      <c r="C36" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="30"/>
-      <c r="E36" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
     </row>
     <row r="37" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="30" t="s">
+      <c r="C37" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="D37" s="30"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
     </row>
     <row r="38" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="D38" s="30"/>
-      <c r="E38" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
     </row>
     <row r="39" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="30" t="s">
+      <c r="C39" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="D39" s="30"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
     </row>
     <row r="40" spans="3:8" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
     </row>
     <row r="41" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C41" s="12" t="s">
@@ -1369,12 +1369,12 @@
       <c r="H41" s="12"/>
     </row>
     <row r="42" spans="3:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
     </row>
     <row r="43" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C43" s="12" t="s">
@@ -1387,124 +1387,124 @@
       <c r="H43" s="12"/>
     </row>
     <row r="44" spans="3:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
     </row>
     <row r="45" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C45" s="49" t="s">
+      <c r="C45" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="D45" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="33"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="49"/>
+      <c r="D45" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="29"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
     </row>
     <row r="46" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="32" t="s">
+      <c r="C46" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="32"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
     </row>
     <row r="47" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="32" t="s">
+      <c r="C47" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
     </row>
     <row r="48" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="32" t="s">
+      <c r="C48" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="32"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
     </row>
     <row r="49" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="32" t="s">
+      <c r="C49" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
     </row>
     <row r="50" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="32" t="s">
+      <c r="C50" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
     </row>
     <row r="51" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="32" t="s">
+      <c r="C51" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
     </row>
     <row r="52" spans="3:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="34"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
     </row>
     <row r="53" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C53" s="50" t="s">
+      <c r="C53" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="D53" s="50"/>
-      <c r="E53" s="50"/>
-      <c r="F53" s="50"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="50"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="46"/>
     </row>
     <row r="54" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="44" t="s">
+      <c r="C54" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="D54" s="44"/>
-      <c r="E54" s="44"/>
-      <c r="F54" s="44"/>
-      <c r="G54" s="44"/>
-      <c r="H54" s="44"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
     </row>
     <row r="55" spans="3:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="34"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
     </row>
     <row r="56" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C56" s="12" t="s">
@@ -1517,12 +1517,12 @@
       <c r="H56" s="12"/>
     </row>
     <row r="57" spans="3:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="34"/>
-      <c r="H57" s="34"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
     </row>
     <row r="58" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C58" s="12" t="s">
@@ -1535,12 +1535,12 @@
       <c r="H58" s="12"/>
     </row>
     <row r="59" spans="3:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="34"/>
-      <c r="H59" s="34"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
     </row>
     <row r="60" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C60" s="12" t="s">
@@ -1553,12 +1553,12 @@
       <c r="H60" s="12"/>
     </row>
     <row r="61" spans="3:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="34"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="34"/>
-      <c r="H61" s="34"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
     </row>
     <row r="62" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C62" s="12" t="s">
@@ -1668,7 +1668,7 @@
       <c r="AM2" s="1"/>
     </row>
     <row r="3" spans="1:39" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="50" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1684,7 +1684,7 @@
       </c>
     </row>
     <row r="4" spans="1:39" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
@@ -1698,7 +1698,7 @@
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
@@ -1712,7 +1712,7 @@
       </c>
     </row>
     <row r="6" spans="1:39" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="6" t="s">
         <v>24</v>
       </c>
@@ -1726,7 +1726,7 @@
       </c>
     </row>
     <row r="7" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1740,7 +1740,7 @@
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="6" t="s">
         <v>23</v>
       </c>
@@ -1754,7 +1754,7 @@
       </c>
     </row>
     <row r="9" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="6" t="s">
         <v>25</v>
       </c>
@@ -1768,7 +1768,7 @@
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="50" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -1784,7 +1784,7 @@
       </c>
     </row>
     <row r="11" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
@@ -1798,7 +1798,7 @@
       </c>
     </row>
     <row r="12" spans="1:39" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="47" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -1814,7 +1814,7 @@
       </c>
     </row>
     <row r="13" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="6" t="s">
         <v>29</v>
       </c>
@@ -1828,7 +1828,7 @@
       </c>
     </row>
     <row r="14" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="6" t="s">
         <v>30</v>
       </c>
@@ -1842,7 +1842,7 @@
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="6" t="s">
         <v>31</v>
       </c>
@@ -1856,7 +1856,7 @@
       </c>
     </row>
     <row r="16" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="50" t="s">
         <v>35</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -1872,7 +1872,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="6" t="s">
         <v>33</v>
       </c>
@@ -1886,7 +1886,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="6" t="s">
         <v>34</v>
       </c>
@@ -2001,7 +2001,7 @@
       <c r="AM2" s="1"/>
     </row>
     <row r="3" spans="1:39" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="47" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -2017,7 +2017,7 @@
       </c>
     </row>
     <row r="4" spans="1:39" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="6" t="s">
         <v>74</v>
       </c>
@@ -2031,7 +2031,7 @@
       </c>
     </row>
     <row r="5" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="6" t="s">
         <v>72</v>
       </c>
@@ -2045,7 +2045,7 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="47" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -2061,7 +2061,7 @@
       </c>
     </row>
     <row r="7" spans="1:39" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="6" t="s">
         <v>50</v>
       </c>
@@ -2075,7 +2075,7 @@
       </c>
     </row>
     <row r="8" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="6" t="s">
         <v>51</v>
       </c>
@@ -2089,7 +2089,7 @@
       </c>
     </row>
     <row r="9" spans="1:39" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="6" t="s">
         <v>61</v>
       </c>
@@ -2103,7 +2103,7 @@
       </c>
     </row>
     <row r="10" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="6" t="s">
         <v>64</v>
       </c>
@@ -2117,7 +2117,7 @@
       </c>
     </row>
     <row r="11" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="6" t="s">
         <v>66</v>
       </c>
@@ -2131,7 +2131,7 @@
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="6" t="s">
         <v>76</v>
       </c>
@@ -2145,7 +2145,7 @@
       </c>
     </row>
     <row r="13" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="6" t="s">
         <v>77</v>
       </c>
@@ -2159,7 +2159,7 @@
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:39" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="6" t="s">
         <v>78</v>
       </c>
@@ -2173,7 +2173,7 @@
       </c>
     </row>
     <row r="15" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="47" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -2189,7 +2189,7 @@
       </c>
     </row>
     <row r="16" spans="1:39" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="6" t="s">
         <v>68</v>
       </c>
@@ -2203,7 +2203,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="6" t="s">
         <v>75</v>
       </c>
@@ -2233,7 +2233,7 @@
       <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="47" t="s">
         <v>42</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -2249,7 +2249,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="6" t="s">
         <v>65</v>
       </c>
@@ -2263,7 +2263,7 @@
       <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="6" t="s">
         <v>69</v>
       </c>
@@ -2277,7 +2277,7 @@
       <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="6" t="s">
         <v>70</v>
       </c>
@@ -2291,7 +2291,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
+      <c r="A23" s="49"/>
       <c r="B23" s="6" t="s">
         <v>80</v>
       </c>
@@ -2305,7 +2305,7 @@
       <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="47" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -2321,7 +2321,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
+      <c r="A25" s="48"/>
       <c r="B25" s="6" t="s">
         <v>55</v>
       </c>
@@ -2335,7 +2335,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="6" t="s">
         <v>56</v>
       </c>
@@ -2349,7 +2349,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="24"/>
+      <c r="A27" s="48"/>
       <c r="B27" s="6" t="s">
         <v>57</v>
       </c>
@@ -2363,7 +2363,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="6" t="s">
         <v>58</v>
       </c>
@@ -2377,7 +2377,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
+      <c r="A29" s="48"/>
       <c r="B29" s="6" t="s">
         <v>59</v>
       </c>
@@ -2391,7 +2391,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
+      <c r="A30" s="48"/>
       <c r="B30" s="6" t="s">
         <v>60</v>
       </c>
@@ -2405,7 +2405,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="24"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="6" t="s">
         <v>62</v>
       </c>
@@ -2419,7 +2419,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="24"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="6" t="s">
         <v>63</v>
       </c>
@@ -2433,7 +2433,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="6" t="s">
         <v>79</v>
       </c>
@@ -2447,7 +2447,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
+      <c r="A34" s="49"/>
       <c r="B34" s="6" t="s">
         <v>81</v>
       </c>

--- a/LM_SprintBacklog.xlsx
+++ b/LM_SprintBacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37933B32-55AC-4B3E-8DD1-802224F52FE6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10415615-0A3D-4384-B863-1138B09AB1AD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE683880-89A1-4F08-895C-7BD551CFBB6D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="111">
   <si>
     <t>Product Backlog Item</t>
   </si>
@@ -361,6 +361,15 @@
   </si>
   <si>
     <t>Automatiser la recherche</t>
+  </si>
+  <si>
+    <t>Afficher les préférences en commun</t>
+  </si>
+  <si>
+    <t>Moins restreindre l'aglorithme de match</t>
+  </si>
+  <si>
+    <t>Supprimer un utilisateur pour une inactivité</t>
   </si>
 </sst>
 </file>
@@ -550,7 +559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -646,6 +655,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -965,10 +975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44797287-9CFB-45F6-9118-2459C604D196}">
-  <dimension ref="C6:H62"/>
+  <dimension ref="C6:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1016,7 +1026,9 @@
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
-      <c r="F8" s="21"/>
+      <c r="F8" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
     </row>
@@ -1026,7 +1038,9 @@
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
-      <c r="F9" s="21"/>
+      <c r="F9" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
     </row>
@@ -1068,7 +1082,9 @@
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
-      <c r="F13" s="23"/>
+      <c r="F13" s="23" t="s">
+        <v>17</v>
+      </c>
       <c r="G13" s="23"/>
       <c r="H13" s="25"/>
     </row>
@@ -1108,7 +1124,9 @@
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="15"/>
-      <c r="F17" s="14"/>
+      <c r="F17" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
     </row>
@@ -1130,7 +1148,9 @@
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="15"/>
-      <c r="F19" s="14"/>
+      <c r="F19" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
     </row>
@@ -1198,7 +1218,9 @@
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
+      <c r="F25" s="12" t="s">
+        <v>17</v>
+      </c>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
     </row>
@@ -1238,7 +1260,9 @@
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="20"/>
-      <c r="F29" s="19"/>
+      <c r="F29" s="19" t="s">
+        <v>17</v>
+      </c>
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
     </row>
@@ -1324,7 +1348,9 @@
       </c>
       <c r="D37" s="26"/>
       <c r="E37" s="27"/>
-      <c r="F37" s="26"/>
+      <c r="F37" s="26" t="s">
+        <v>17</v>
+      </c>
       <c r="G37" s="26"/>
       <c r="H37" s="26"/>
     </row>
@@ -1346,123 +1372,133 @@
       </c>
       <c r="D39" s="26"/>
       <c r="E39" s="27"/>
-      <c r="F39" s="26"/>
+      <c r="F39" s="26" t="s">
+        <v>17</v>
+      </c>
       <c r="G39" s="26"/>
       <c r="H39" s="26"/>
     </row>
-    <row r="40" spans="3:8" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-    </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C41" s="12" t="s">
+    <row r="40" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" s="26"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+    </row>
+    <row r="41" spans="3:8" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C42" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-    </row>
-    <row r="42" spans="3:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-    </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C43" s="12" t="s">
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+    </row>
+    <row r="43" spans="3:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C44" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-    </row>
-    <row r="44" spans="3:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-    </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C45" s="45" t="s">
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+    </row>
+    <row r="45" spans="3:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C46" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="D45" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="29"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="45"/>
-    </row>
-    <row r="46" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-    </row>
-    <row r="47" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="28" t="s">
-        <v>102</v>
+      <c r="D46" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="29"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C47" s="51" t="s">
+        <v>108</v>
       </c>
       <c r="D47" s="29"/>
-      <c r="E47" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-    </row>
-    <row r="48" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="28" t="s">
-        <v>103</v>
+      <c r="E47" s="29"/>
+      <c r="F47" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C48" s="51" t="s">
+        <v>109</v>
       </c>
       <c r="D48" s="29"/>
       <c r="E48" s="29"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
+      <c r="F48" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
     </row>
     <row r="49" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C49" s="28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
+      <c r="E49" s="29" t="s">
+        <v>17</v>
+      </c>
       <c r="F49" s="28"/>
       <c r="G49" s="28"/>
       <c r="H49" s="28"/>
     </row>
     <row r="50" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C50" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
+      <c r="E50" s="29" t="s">
+        <v>17</v>
+      </c>
       <c r="F50" s="28"/>
       <c r="G50" s="28"/>
       <c r="H50" s="28"/>
     </row>
     <row r="51" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C51" s="28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D51" s="29"/>
       <c r="E51" s="29"/>
@@ -1470,107 +1506,141 @@
       <c r="G51" s="28"/>
       <c r="H51" s="28"/>
     </row>
-    <row r="52" spans="3:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="30"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
-    </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C53" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="D53" s="46"/>
-      <c r="E53" s="46"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="46"/>
-      <c r="H53" s="46"/>
+    <row r="52" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+    </row>
+    <row r="53" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
     </row>
     <row r="54" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="D54" s="40"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="40"/>
-      <c r="H54" s="40"/>
-    </row>
-    <row r="55" spans="3:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+    </row>
+    <row r="55" spans="3:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
       <c r="F55" s="30"/>
       <c r="G55" s="30"/>
       <c r="H55" s="30"/>
     </row>
     <row r="56" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C56" s="12" t="s">
+      <c r="C56" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
+    </row>
+    <row r="57" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C57" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="40"/>
+    </row>
+    <row r="58" spans="3:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C59" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-    </row>
-    <row r="57" spans="3:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="30"/>
-    </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C58" s="12" t="s">
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+    </row>
+    <row r="60" spans="3:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C61" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-    </row>
-    <row r="59" spans="3:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="30"/>
-    </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C60" s="12" t="s">
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+    </row>
+    <row r="62" spans="3:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C63" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-    </row>
-    <row r="61" spans="3:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="30"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="30"/>
-    </row>
-    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C62" s="12" t="s">
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+    </row>
+    <row r="64" spans="3:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
+    </row>
+    <row r="65" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C65" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D62" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="10" t="s">
+      <c r="D65" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="10" t="s">
         <v>17</v>
       </c>
     </row>

--- a/LM_SprintBacklog.xlsx
+++ b/LM_SprintBacklog.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10415615-0A3D-4384-B863-1138B09AB1AD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107FA716-925E-4C7D-ACE8-C7A44E6CDB96}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE683880-89A1-4F08-895C-7BD551CFBB6D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{CE683880-89A1-4F08-895C-7BD551CFBB6D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Liste des sprints" sheetId="5" r:id="rId1"/>
-    <sheet name="Sprint 0" sheetId="1" r:id="rId2"/>
-    <sheet name="Sprint 1" sheetId="7" r:id="rId3"/>
+    <sheet name="Sprint 0" sheetId="1" r:id="rId1"/>
+    <sheet name="Sprint 1" sheetId="7" r:id="rId2"/>
+    <sheet name="Sprint2" sheetId="9" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sprint 0'!$A$2:$F$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Sprint 1'!$A$2:$F$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sprint 0'!$A$2:$F$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sprint 1'!$A$2:$F$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sprint2!$A$2:$F$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="109">
   <si>
     <t>Product Backlog Item</t>
   </si>
@@ -147,45 +148,15 @@
     <t>Chercher 1 profil avec publicité</t>
   </si>
   <si>
-    <t>Product Backlog</t>
-  </si>
-  <si>
-    <t>Sprint 0</t>
-  </si>
-  <si>
-    <t>Sprint 1</t>
-  </si>
-  <si>
-    <t>Sprint 2</t>
-  </si>
-  <si>
-    <t>Sprint 3</t>
-  </si>
-  <si>
     <t>M'authentifier</t>
   </si>
   <si>
     <t>Administrer l'application</t>
   </si>
   <si>
-    <t>Avoir les informations filtrées</t>
-  </si>
-  <si>
-    <t>M'abonner à la newsletter</t>
-  </si>
-  <si>
     <t>Chercher 10 profils sans publicité</t>
   </si>
   <si>
-    <t>Contacter le support client</t>
-  </si>
-  <si>
-    <t>Changer la langue</t>
-  </si>
-  <si>
-    <t>Gérer des publicités</t>
-  </si>
-  <si>
     <t>Exploiter les réponses du Quiz</t>
   </si>
   <si>
@@ -285,98 +256,122 @@
     <t>Proposer un abojnnement à l'affichage des matchs</t>
   </si>
   <si>
-    <t>Gérer mes paiements</t>
-  </si>
-  <si>
     <t>Gérer les services externes</t>
   </si>
   <si>
-    <t>Bloquer et signaler des personnes</t>
-  </si>
-  <si>
-    <t>Effectuer une demande d'adhésion</t>
-  </si>
-  <si>
-    <t>Modifier la formule d'abonnement</t>
-  </si>
-  <si>
-    <t>Vérifier les sms</t>
-  </si>
-  <si>
     <t>Vérifier les photos</t>
   </si>
   <si>
-    <t>Valider le compte</t>
-  </si>
-  <si>
     <t>Attribuer un rôle</t>
   </si>
   <si>
-    <t>Vérifier l'email</t>
-  </si>
-  <si>
     <t>Relancer les vérifications</t>
   </si>
   <si>
-    <t>M'authentifier avec un compte externe</t>
-  </si>
-  <si>
-    <t>M'authentifier avec un compte interne</t>
-  </si>
-  <si>
-    <t>Effectuer les vérifications (modérateur)</t>
-  </si>
-  <si>
-    <t>Gérer les rôles</t>
-  </si>
-  <si>
-    <t>Tracer les connexions</t>
-  </si>
-  <si>
-    <t>Réinitialiser des mots de passes</t>
-  </si>
-  <si>
-    <t>Gérer des comptes</t>
-  </si>
-  <si>
-    <t>Bannir et avertir des comptes</t>
-  </si>
-  <si>
-    <t>Chercher des profil</t>
-  </si>
-  <si>
-    <t>Intégrer les préférences</t>
-  </si>
-  <si>
-    <t>Intégrer les services externe</t>
-  </si>
-  <si>
-    <t>Proposer abonnement</t>
-  </si>
-  <si>
     <t>Chercher automatiquement 1 seul profil</t>
   </si>
   <si>
-    <t>Afficher des publicité</t>
-  </si>
-  <si>
     <t>Automatiser la recherche</t>
   </si>
   <si>
-    <t>Afficher les préférences en commun</t>
-  </si>
-  <si>
-    <t>Moins restreindre l'aglorithme de match</t>
-  </si>
-  <si>
-    <t>Supprimer un utilisateur pour une inactivité</t>
+    <t>Chat privé</t>
+  </si>
+  <si>
+    <t>Bloquer et signaler un utilisateur</t>
+  </si>
+  <si>
+    <t>Chat publique</t>
+  </si>
+  <si>
+    <t>Chat Roulette</t>
+  </si>
+  <si>
+    <t>Vérifier les SMS (Compte externe)</t>
+  </si>
+  <si>
+    <t>Sébastien Berger, Tim Allemann</t>
+  </si>
+  <si>
+    <t>Effectuer vérification modérateur</t>
+  </si>
+  <si>
+    <t>Administrer application</t>
+  </si>
+  <si>
+    <t>Réinitaliser mot de passe</t>
+  </si>
+  <si>
+    <t>Bannir et avertir utilisateur</t>
+  </si>
+  <si>
+    <t>CRUD sur les données</t>
+  </si>
+  <si>
+    <t>Paul Gillet</t>
+  </si>
+  <si>
+    <t>Lister utilisateurs</t>
+  </si>
+  <si>
+    <t>Sébastien Berger, Hans Morsch</t>
+  </si>
+  <si>
+    <t>Moins restreindre l'algorithme de match</t>
+  </si>
+  <si>
+    <t>Intégrer les services externes</t>
+  </si>
+  <si>
+    <t>Proposer un abonnement</t>
+  </si>
+  <si>
+    <t>Afficher support côté client</t>
+  </si>
+  <si>
+    <t>Afficher support côté administrateur</t>
+  </si>
+  <si>
+    <t>Contacter support client</t>
+  </si>
+  <si>
+    <t>CRUD sur les publicités</t>
+  </si>
+  <si>
+    <t>Afficher aléatoirement des publicités</t>
+  </si>
+  <si>
+    <t>Gérer les publicités</t>
+  </si>
+  <si>
+    <t>Réinitialiser le Quiz</t>
+  </si>
+  <si>
+    <t>Autoriser accès et limiter utilisation (modérateur)</t>
+  </si>
+  <si>
+    <t>Afficher statistiques et données</t>
+  </si>
+  <si>
+    <t>M'authentifier avec un compte externe (Facebook)</t>
+  </si>
+  <si>
+    <t>Utiliser webcam pour insérer des photos</t>
+  </si>
+  <si>
+    <t>Initialiser les policy</t>
+  </si>
+  <si>
+    <t>Valider compte externe</t>
+  </si>
+  <si>
+    <t>Intégrer une interface administrateur</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,36 +387,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1" tint="0.14999847407452621"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.14999847407452621"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="13">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -437,60 +404,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC9900"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -574,75 +487,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -655,7 +520,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,6 +528,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF66CC"/>
       <color rgb="FFCC9900"/>
     </mruColors>
   </colors>
@@ -974,683 +839,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44797287-9CFB-45F6-9118-2459C604D196}">
-  <dimension ref="C6:H65"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="42.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-    </row>
-    <row r="8" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-    </row>
-    <row r="9" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-    </row>
-    <row r="10" spans="3:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="38"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-    </row>
-    <row r="11" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="25"/>
-    </row>
-    <row r="12" spans="3:8" ht="16.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="25"/>
-    </row>
-    <row r="13" spans="3:8" ht="16.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="25"/>
-    </row>
-    <row r="14" spans="3:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="34"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="36"/>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-    </row>
-    <row r="16" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-    </row>
-    <row r="17" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-    </row>
-    <row r="18" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-    </row>
-    <row r="19" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-    </row>
-    <row r="20" spans="3:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C21" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="42"/>
-      <c r="E21" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="31"/>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C25" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-    </row>
-    <row r="26" spans="3:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C27" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="43"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-    </row>
-    <row r="28" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-    </row>
-    <row r="29" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-    </row>
-    <row r="30" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-    </row>
-    <row r="31" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-    </row>
-    <row r="32" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-    </row>
-    <row r="33" spans="3:8" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-    </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C34" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="44"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-    </row>
-    <row r="35" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="D35" s="26"/>
-      <c r="E35" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-    </row>
-    <row r="36" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="D36" s="26"/>
-      <c r="E36" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-    </row>
-    <row r="37" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-    </row>
-    <row r="38" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="D38" s="26"/>
-      <c r="E38" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-    </row>
-    <row r="39" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-    </row>
-    <row r="40" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="D40" s="26"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-    </row>
-    <row r="41" spans="3:8" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-    </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C42" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-    </row>
-    <row r="43" spans="3:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-    </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C44" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-    </row>
-    <row r="45" spans="3:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-    </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C46" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="D46" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="29"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="45"/>
-    </row>
-    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C47" s="51" t="s">
-        <v>108</v>
-      </c>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45"/>
-    </row>
-    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C48" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" s="45"/>
-      <c r="H48" s="45"/>
-    </row>
-    <row r="49" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-    </row>
-    <row r="50" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-    </row>
-    <row r="51" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-    </row>
-    <row r="52" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-    </row>
-    <row r="53" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-    </row>
-    <row r="54" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-    </row>
-    <row r="55" spans="3:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="30"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-    </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C56" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="D56" s="46"/>
-      <c r="E56" s="46"/>
-      <c r="F56" s="46"/>
-      <c r="G56" s="46"/>
-      <c r="H56" s="46"/>
-    </row>
-    <row r="57" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C57" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="D57" s="40"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="40"/>
-      <c r="G57" s="40"/>
-      <c r="H57" s="40"/>
-    </row>
-    <row r="58" spans="3:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="30"/>
-    </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C59" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
-    </row>
-    <row r="60" spans="3:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C60" s="30"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="30"/>
-    </row>
-    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C61" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-    </row>
-    <row r="62" spans="3:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="30"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="30"/>
-      <c r="F62" s="30"/>
-      <c r="G62" s="30"/>
-      <c r="H62" s="30"/>
-    </row>
-    <row r="63" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C63" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
-    </row>
-    <row r="64" spans="3:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="30"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="30"/>
-    </row>
-    <row r="65" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C65" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B75B0E-ECDE-42A2-B9F3-4E3333CB3A5F}">
   <dimension ref="A1:AM28"/>
   <sheetViews>
@@ -1738,7 +926,7 @@
       <c r="AM2" s="1"/>
     </row>
     <row r="3" spans="1:39" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1754,7 +942,7 @@
       </c>
     </row>
     <row r="4" spans="1:39" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
@@ -1768,7 +956,7 @@
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
@@ -1782,7 +970,7 @@
       </c>
     </row>
     <row r="6" spans="1:39" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="6" t="s">
         <v>24</v>
       </c>
@@ -1796,7 +984,7 @@
       </c>
     </row>
     <row r="7" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1810,7 +998,7 @@
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="6" t="s">
         <v>23</v>
       </c>
@@ -1824,7 +1012,7 @@
       </c>
     </row>
     <row r="9" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="6" t="s">
         <v>25</v>
       </c>
@@ -1838,7 +1026,7 @@
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -1854,7 +1042,7 @@
       </c>
     </row>
     <row r="11" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
@@ -1868,7 +1056,7 @@
       </c>
     </row>
     <row r="12" spans="1:39" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="17" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -1884,7 +1072,7 @@
       </c>
     </row>
     <row r="13" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="6" t="s">
         <v>29</v>
       </c>
@@ -1898,7 +1086,7 @@
       </c>
     </row>
     <row r="14" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="6" t="s">
         <v>30</v>
       </c>
@@ -1912,7 +1100,7 @@
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="6" t="s">
         <v>31</v>
       </c>
@@ -1926,7 +1114,7 @@
       </c>
     </row>
     <row r="16" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="20" t="s">
         <v>35</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -1942,7 +1130,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="6" t="s">
         <v>33</v>
       </c>
@@ -1956,7 +1144,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="6" t="s">
         <v>34</v>
       </c>
@@ -1983,12 +1171,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C79F63E-31B1-479B-88FD-E48C70B87D17}">
   <dimension ref="A1:AM34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection sqref="A1:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2071,11 +1259,11 @@
       <c r="AM2" s="1"/>
     </row>
     <row r="3" spans="1:39" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -2087,9 +1275,9 @@
       </c>
     </row>
     <row r="4" spans="1:39" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="6" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -2101,9 +1289,9 @@
       </c>
     </row>
     <row r="5" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="6" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
@@ -2115,11 +1303,11 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
@@ -2131,9 +1319,9 @@
       </c>
     </row>
     <row r="7" spans="1:39" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
@@ -2145,9 +1333,9 @@
       </c>
     </row>
     <row r="8" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="6" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
@@ -2159,9 +1347,9 @@
       </c>
     </row>
     <row r="9" spans="1:39" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>6</v>
@@ -2173,9 +1361,9 @@
       </c>
     </row>
     <row r="10" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
@@ -2187,9 +1375,9 @@
       </c>
     </row>
     <row r="11" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="6" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>12</v>
@@ -2201,9 +1389,9 @@
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="6" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>6</v>
@@ -2215,9 +1403,9 @@
       </c>
     </row>
     <row r="13" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="6" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>26</v>
@@ -2229,9 +1417,9 @@
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:39" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="6" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>6</v>
@@ -2243,11 +1431,11 @@
       </c>
     </row>
     <row r="15" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
@@ -2259,9 +1447,9 @@
       </c>
     </row>
     <row r="16" spans="1:39" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="48"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="6" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>12</v>
@@ -2273,9 +1461,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="6" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>12</v>
@@ -2287,11 +1475,11 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>12</v>
@@ -2303,14 +1491,14 @@
       <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="C19" s="6" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -2319,9 +1507,9 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="48"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>26</v>
@@ -2333,9 +1521,9 @@
       <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="48"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="6" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>26</v>
@@ -2347,9 +1535,9 @@
       <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="6" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>12</v>
@@ -2361,9 +1549,9 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="6" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>26</v>
@@ -2375,11 +1563,11 @@
       <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="17" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>6</v>
@@ -2391,9 +1579,9 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="48"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="6" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>6</v>
@@ -2405,9 +1593,9 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="48"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="6" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>6</v>
@@ -2419,9 +1607,9 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="48"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="6" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>6</v>
@@ -2433,9 +1621,9 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="6" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>6</v>
@@ -2447,9 +1635,9 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="48"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>6</v>
@@ -2461,9 +1649,9 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="6" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>6</v>
@@ -2475,9 +1663,9 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>6</v>
@@ -2489,9 +1677,9 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="48"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="6" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>6</v>
@@ -2503,9 +1691,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="48"/>
+      <c r="A33" s="18"/>
       <c r="B33" s="6" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>6</v>
@@ -2517,9 +1705,9 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
+      <c r="A34" s="19"/>
       <c r="B34" s="6" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>6</v>
@@ -2542,4 +1730,563 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56021415-774F-4D48-BA37-7F08D0E3E75E}">
+  <dimension ref="A1:AM33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="4">
+        <v>43963</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="4">
+        <v>43984</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+    </row>
+    <row r="3" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
+      <c r="B27" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
+      <c r="B30" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="19"/>
+      <c r="B32" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:F33" xr:uid="{2D6EC268-FFCD-41DA-8732-66B916B3EBA2}"/>
+  <mergeCells count="7">
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A16:A23"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/LM_SprintBacklog.xlsx
+++ b/LM_SprintBacklog.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107FA716-925E-4C7D-ACE8-C7A44E6CDB96}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0ADADC2-5011-4447-9B46-196FE5AE257B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{CE683880-89A1-4F08-895C-7BD551CFBB6D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{CE683880-89A1-4F08-895C-7BD551CFBB6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 0" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 1" sheetId="7" r:id="rId2"/>
     <sheet name="Sprint2" sheetId="9" r:id="rId3"/>
+    <sheet name="Sprint3" sheetId="11" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sprint 0'!$A$2:$F$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sprint 1'!$A$2:$F$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sprint2!$A$2:$F$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sprint3!$A$2:$F$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="131">
   <si>
     <t>Product Backlog Item</t>
   </si>
@@ -365,6 +367,72 @@
   </si>
   <si>
     <t>Intégrer une interface administrateur</t>
+  </si>
+  <si>
+    <t>Récupérer les photos de profil d'un compte externe</t>
+  </si>
+  <si>
+    <t>Bloquer signaler des personnes</t>
+  </si>
+  <si>
+    <t>Ajouter emoji</t>
+  </si>
+  <si>
+    <t>Supprimer un utilisateur pour une inactivité</t>
+  </si>
+  <si>
+    <t>Restreindre certaines actions sur compte externe</t>
+  </si>
+  <si>
+    <t>Avoir toujours au moins un admin</t>
+  </si>
+  <si>
+    <t>Avoir les informations filtrées</t>
+  </si>
+  <si>
+    <t>Gérer des commandes</t>
+  </si>
+  <si>
+    <t>Bannir un utilisateur</t>
+  </si>
+  <si>
+    <t>Ajouter des gifs</t>
+  </si>
+  <si>
+    <t>Ajouter signalR et filtrer messages sur le chat</t>
+  </si>
+  <si>
+    <t>Afficher des publicités</t>
+  </si>
+  <si>
+    <t>Résumer profil sur une page</t>
+  </si>
+  <si>
+    <t>Intégrer algorithme de match</t>
+  </si>
+  <si>
+    <t>Tim Allemann, Sébastien Berger</t>
+  </si>
+  <si>
+    <t>Masquer les publicités</t>
+  </si>
+  <si>
+    <t>Traiter demander</t>
+  </si>
+  <si>
+    <t>Envoyer demande</t>
+  </si>
+  <si>
+    <t>Changer la langue</t>
+  </si>
+  <si>
+    <t>Intégrer le changement de langue</t>
+  </si>
+  <si>
+    <t>Inviter l'utilisateur à se connecter avec un 401</t>
+  </si>
+  <si>
+    <t>Afficher la liste des utilisateurs sur le chat général</t>
   </si>
 </sst>
 </file>
@@ -472,7 +540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -508,6 +576,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -519,6 +590,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -926,7 +1000,7 @@
       <c r="AM2" s="1"/>
     </row>
     <row r="3" spans="1:39" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -942,7 +1016,7 @@
       </c>
     </row>
     <row r="4" spans="1:39" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
@@ -956,7 +1030,7 @@
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
@@ -970,7 +1044,7 @@
       </c>
     </row>
     <row r="6" spans="1:39" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="6" t="s">
         <v>24</v>
       </c>
@@ -984,7 +1058,7 @@
       </c>
     </row>
     <row r="7" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
@@ -998,7 +1072,7 @@
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="6" t="s">
         <v>23</v>
       </c>
@@ -1012,7 +1086,7 @@
       </c>
     </row>
     <row r="9" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="6" t="s">
         <v>25</v>
       </c>
@@ -1026,7 +1100,7 @@
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -1042,7 +1116,7 @@
       </c>
     </row>
     <row r="11" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
@@ -1056,7 +1130,7 @@
       </c>
     </row>
     <row r="12" spans="1:39" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="18" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -1072,7 +1146,7 @@
       </c>
     </row>
     <row r="13" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="6" t="s">
         <v>29</v>
       </c>
@@ -1086,7 +1160,7 @@
       </c>
     </row>
     <row r="14" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="6" t="s">
         <v>30</v>
       </c>
@@ -1100,7 +1174,7 @@
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="6" t="s">
         <v>31</v>
       </c>
@@ -1114,7 +1188,7 @@
       </c>
     </row>
     <row r="16" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="21" t="s">
         <v>35</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -1130,7 +1204,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="6" t="s">
         <v>33</v>
       </c>
@@ -1144,7 +1218,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="6" t="s">
         <v>34</v>
       </c>
@@ -1259,7 +1333,7 @@
       <c r="AM2" s="1"/>
     </row>
     <row r="3" spans="1:39" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1275,7 +1349,7 @@
       </c>
     </row>
     <row r="4" spans="1:39" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="6" t="s">
         <v>64</v>
       </c>
@@ -1289,7 +1363,7 @@
       </c>
     </row>
     <row r="5" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="6" t="s">
         <v>62</v>
       </c>
@@ -1303,7 +1377,7 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="18" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -1319,7 +1393,7 @@
       </c>
     </row>
     <row r="7" spans="1:39" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="6" t="s">
         <v>40</v>
       </c>
@@ -1333,7 +1407,7 @@
       </c>
     </row>
     <row r="8" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="6" t="s">
         <v>41</v>
       </c>
@@ -1347,7 +1421,7 @@
       </c>
     </row>
     <row r="9" spans="1:39" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="6" t="s">
         <v>51</v>
       </c>
@@ -1361,7 +1435,7 @@
       </c>
     </row>
     <row r="10" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="6" t="s">
         <v>54</v>
       </c>
@@ -1375,7 +1449,7 @@
       </c>
     </row>
     <row r="11" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="6" t="s">
         <v>56</v>
       </c>
@@ -1389,7 +1463,7 @@
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="6" t="s">
         <v>66</v>
       </c>
@@ -1403,7 +1477,7 @@
       </c>
     </row>
     <row r="13" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="6" t="s">
         <v>67</v>
       </c>
@@ -1417,7 +1491,7 @@
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:39" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="6" t="s">
         <v>68</v>
       </c>
@@ -1431,7 +1505,7 @@
       </c>
     </row>
     <row r="15" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -1447,7 +1521,7 @@
       </c>
     </row>
     <row r="16" spans="1:39" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="6" t="s">
         <v>58</v>
       </c>
@@ -1461,7 +1535,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="6" t="s">
         <v>65</v>
       </c>
@@ -1491,7 +1565,7 @@
       <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="18" t="s">
         <v>37</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -1507,7 +1581,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="6" t="s">
         <v>55</v>
       </c>
@@ -1521,7 +1595,7 @@
       <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="6" t="s">
         <v>59</v>
       </c>
@@ -1535,7 +1609,7 @@
       <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="6" t="s">
         <v>60</v>
       </c>
@@ -1549,7 +1623,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="6" t="s">
         <v>70</v>
       </c>
@@ -1563,7 +1637,7 @@
       <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="18" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -1579,7 +1653,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="6" t="s">
         <v>45</v>
       </c>
@@ -1593,7 +1667,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="6" t="s">
         <v>46</v>
       </c>
@@ -1607,7 +1681,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="6" t="s">
         <v>47</v>
       </c>
@@ -1621,7 +1695,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="6" t="s">
         <v>48</v>
       </c>
@@ -1635,7 +1709,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="6" t="s">
         <v>49</v>
       </c>
@@ -1649,7 +1723,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="6" t="s">
         <v>50</v>
       </c>
@@ -1663,7 +1737,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="6" t="s">
         <v>52</v>
       </c>
@@ -1677,7 +1751,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="6" t="s">
         <v>53</v>
       </c>
@@ -1691,7 +1765,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
+      <c r="A33" s="19"/>
       <c r="B33" s="6" t="s">
         <v>69</v>
       </c>
@@ -1705,7 +1779,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
+      <c r="A34" s="20"/>
       <c r="B34" s="6" t="s">
         <v>71</v>
       </c>
@@ -1736,7 +1810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56021415-774F-4D48-BA37-7F08D0E3E75E}">
   <dimension ref="A1:AM33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
@@ -1820,7 +1894,7 @@
       <c r="AM2" s="1"/>
     </row>
     <row r="3" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1836,7 +1910,7 @@
       </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="6" t="s">
         <v>74</v>
       </c>
@@ -1910,7 +1984,7 @@
       </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1926,7 +2000,7 @@
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="6" t="s">
         <v>80</v>
       </c>
@@ -1940,7 +2014,7 @@
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="6" t="s">
         <v>81</v>
       </c>
@@ -1954,7 +2028,7 @@
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -1970,7 +2044,7 @@
       </c>
     </row>
     <row r="13" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="6" t="s">
         <v>82</v>
       </c>
@@ -1984,7 +2058,7 @@
       </c>
     </row>
     <row r="14" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="6" t="s">
         <v>75</v>
       </c>
@@ -1998,7 +2072,7 @@
       </c>
     </row>
     <row r="15" spans="1:39" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="6" t="s">
         <v>84</v>
       </c>
@@ -2012,7 +2086,7 @@
       </c>
     </row>
     <row r="16" spans="1:39" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="18" t="s">
         <v>85</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -2028,7 +2102,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="6" t="s">
         <v>87</v>
       </c>
@@ -2042,7 +2116,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="6" t="s">
         <v>88</v>
       </c>
@@ -2056,7 +2130,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="6" t="s">
         <v>90</v>
       </c>
@@ -2070,7 +2144,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="6" t="s">
         <v>101</v>
       </c>
@@ -2084,7 +2158,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="6" t="s">
         <v>102</v>
       </c>
@@ -2098,7 +2172,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="6" t="s">
         <v>103</v>
       </c>
@@ -2112,7 +2186,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="16" t="s">
         <v>108</v>
       </c>
@@ -2126,7 +2200,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="19" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -2142,7 +2216,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="6" t="s">
         <v>93</v>
       </c>
@@ -2156,7 +2230,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="6" t="s">
         <v>94</v>
       </c>
@@ -2170,7 +2244,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="6" t="s">
         <v>76</v>
       </c>
@@ -2200,7 +2274,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="19" t="s">
         <v>97</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -2216,7 +2290,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
+      <c r="A30" s="20"/>
       <c r="B30" s="6" t="s">
         <v>96</v>
       </c>
@@ -2230,7 +2304,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="19" t="s">
         <v>100</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -2246,7 +2320,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
+      <c r="A32" s="20"/>
       <c r="B32" s="6" t="s">
         <v>99</v>
       </c>
@@ -2289,4 +2363,446 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F2492C0-1F7E-4120-A295-D68F26A2BF30}">
+  <dimension ref="A1:AM25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="4">
+        <v>43984</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="4">
+        <v>44005</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+    </row>
+    <row r="3" spans="1:39" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="21"/>
+      <c r="B4" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
+      <c r="B6" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:39" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="B9" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A11" s="21"/>
+      <c r="B11" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+      <c r="B12" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
+      <c r="B13" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="21"/>
+      <c r="B15" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="21"/>
+      <c r="B20" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="21"/>
+      <c r="B21" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="B22" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:F25" xr:uid="{2D6EC268-FFCD-41DA-8732-66B916B3EBA2}"/>
+  <mergeCells count="6">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A14:A17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>